--- a/data/strategies/场外策略汇总.xlsx
+++ b/data/strategies/场外策略汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\project_indexfund\202106\data\strategies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\project_indexfund\202107\data\strategies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
   <si>
     <t>年化波动率-1M</t>
   </si>
@@ -42,574 +42,565 @@
     <t>策略标签</t>
   </si>
   <si>
+    <t>“防御”+“国内大循环”</t>
+  </si>
+  <si>
     <t>业绩确定性</t>
   </si>
   <si>
+    <t>“三朵金花”</t>
+  </si>
+  <si>
+    <t>景气轮动</t>
+  </si>
+  <si>
+    <t>制造业回归</t>
+  </si>
+  <si>
+    <t>经济复苏+利率上行</t>
+  </si>
+  <si>
+    <t>科技+消费</t>
+  </si>
+  <si>
+    <t>周期+金融</t>
+  </si>
+  <si>
+    <t>顺周期中的Alpha与Beta</t>
+  </si>
+  <si>
+    <t>创新消费</t>
+  </si>
+  <si>
+    <t>复苏+估值+科技</t>
+  </si>
+  <si>
+    <t>景气复苏</t>
+  </si>
+  <si>
     <t>合理估值+确定性</t>
   </si>
   <si>
+    <t>制造+消费</t>
+  </si>
+  <si>
+    <t>指数基金精选</t>
+  </si>
+  <si>
+    <t>再通涨+新制造</t>
+  </si>
+  <si>
+    <t>盈利修复+周期制造</t>
+  </si>
+  <si>
+    <t>”业绩改善“+”政策确定“</t>
+  </si>
+  <si>
+    <t>”双周期“配置</t>
+  </si>
+  <si>
+    <t>“由短及长”+“由内而外”</t>
+  </si>
+  <si>
+    <t>三条主线</t>
+  </si>
+  <si>
     <t>“后疫情时代”+消费、新能源 大宗商品</t>
   </si>
   <si>
-    <t>景气轮动</t>
+    <t>围绕供需的四条配置主线</t>
   </si>
   <si>
     <t>政策红利+新消费</t>
   </si>
   <si>
-    <t>制造+消费</t>
-  </si>
-  <si>
-    <t>围绕供需的四条配置主线</t>
-  </si>
-  <si>
-    <t>”业绩改善“+”政策确定“</t>
-  </si>
-  <si>
-    <t>”双周期“配置</t>
-  </si>
-  <si>
-    <t>盈利修复+周期制造</t>
-  </si>
-  <si>
-    <t>科技+消费</t>
-  </si>
-  <si>
-    <t>制造业回归</t>
-  </si>
-  <si>
-    <t>三条主线</t>
-  </si>
-  <si>
-    <t>“三朵金花”</t>
-  </si>
-  <si>
-    <t>景气复苏</t>
-  </si>
-  <si>
-    <t>指数基金精选</t>
-  </si>
-  <si>
-    <t>“由短及长”+“由内而外”</t>
-  </si>
-  <si>
-    <t>再通涨+新制造</t>
-  </si>
-  <si>
-    <t>经济复苏+利率上行</t>
-  </si>
-  <si>
-    <t>复苏+估值+科技</t>
-  </si>
-  <si>
-    <t>周期+金融</t>
-  </si>
-  <si>
-    <t>顺周期中的Alpha与Beta</t>
-  </si>
-  <si>
-    <t>“防御”+“国内大循环”</t>
-  </si>
-  <si>
-    <t>创新消费</t>
-  </si>
-  <si>
-    <t>23.57%</t>
-  </si>
-  <si>
-    <t>12.68%</t>
-  </si>
-  <si>
-    <t>19.53%</t>
-  </si>
-  <si>
-    <t>21.69%</t>
-  </si>
-  <si>
-    <t>18.82%</t>
-  </si>
-  <si>
-    <t>20.47%</t>
-  </si>
-  <si>
-    <t>18.68%</t>
+    <t>14.27%</t>
+  </si>
+  <si>
+    <t>27.39%</t>
+  </si>
+  <si>
+    <t>24.03%</t>
+  </si>
+  <si>
+    <t>19.34%</t>
+  </si>
+  <si>
+    <t>24.52%</t>
+  </si>
+  <si>
+    <t>14.45%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>16.73%</t>
+  </si>
+  <si>
+    <t>19.22%</t>
+  </si>
+  <si>
+    <t>28.01%</t>
+  </si>
+  <si>
+    <t>16.71%</t>
+  </si>
+  <si>
+    <t>15.82%</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>24.08%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>26.48%</t>
+  </si>
+  <si>
+    <t>21.92%</t>
+  </si>
+  <si>
+    <t>25.37%</t>
+  </si>
+  <si>
+    <t>23.47%</t>
+  </si>
+  <si>
+    <t>19.07%</t>
+  </si>
+  <si>
+    <t>27.06%</t>
+  </si>
+  <si>
+    <t>24.26%</t>
+  </si>
+  <si>
+    <t>20.93%</t>
+  </si>
+  <si>
+    <t>27.47%</t>
+  </si>
+  <si>
+    <t>12.49%</t>
+  </si>
+  <si>
+    <t>21.93%</t>
+  </si>
+  <si>
+    <t>21.66%</t>
+  </si>
+  <si>
+    <t>18.07%</t>
+  </si>
+  <si>
+    <t>20.19%</t>
+  </si>
+  <si>
+    <t>15.13%</t>
+  </si>
+  <si>
+    <t>22.74%</t>
+  </si>
+  <si>
+    <t>15.72%</t>
+  </si>
+  <si>
+    <t>18.57%</t>
+  </si>
+  <si>
+    <t>23.28%</t>
+  </si>
+  <si>
+    <t>17.34%</t>
+  </si>
+  <si>
+    <t>15.92%</t>
+  </si>
+  <si>
+    <t>15.42%</t>
+  </si>
+  <si>
+    <t>20.49%</t>
+  </si>
+  <si>
+    <t>18.35%</t>
+  </si>
+  <si>
+    <t>24.01%</t>
+  </si>
+  <si>
+    <t>19.30%</t>
+  </si>
+  <si>
+    <t>20.73%</t>
+  </si>
+  <si>
+    <t>20.06%</t>
+  </si>
+  <si>
+    <t>22.72%</t>
+  </si>
+  <si>
+    <t>21.59%</t>
+  </si>
+  <si>
+    <t>20.40%</t>
+  </si>
+  <si>
+    <t>23.02%</t>
+  </si>
+  <si>
+    <t>16.06%</t>
+  </si>
+  <si>
+    <t>26.35%</t>
+  </si>
+  <si>
+    <t>28.63%</t>
+  </si>
+  <si>
+    <t>27.35%</t>
+  </si>
+  <si>
+    <t>23.55%</t>
+  </si>
+  <si>
+    <t>20.27%</t>
+  </si>
+  <si>
+    <t>29.63%</t>
+  </si>
+  <si>
+    <t>19.32%</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>26.68%</t>
+  </si>
+  <si>
+    <t>20.76%</t>
+  </si>
+  <si>
+    <t>19.49%</t>
+  </si>
+  <si>
+    <t>18.78%</t>
+  </si>
+  <si>
+    <t>23.26%</t>
+  </si>
+  <si>
+    <t>22.23%</t>
+  </si>
+  <si>
+    <t>28.65%</t>
+  </si>
+  <si>
+    <t>24.49%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>24.62%</t>
+  </si>
+  <si>
+    <t>23.87%</t>
+  </si>
+  <si>
+    <t>24.91%</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
+    <t>28.80%</t>
+  </si>
+  <si>
+    <t>28.11%</t>
+  </si>
+  <si>
+    <t>2.81%</t>
+  </si>
+  <si>
+    <t>9.33%</t>
+  </si>
+  <si>
+    <t>9.52%</t>
+  </si>
+  <si>
+    <t>3.40%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>-3.64%</t>
+  </si>
+  <si>
+    <t>1.39%</t>
+  </si>
+  <si>
+    <t>1.85%</t>
+  </si>
+  <si>
+    <t>-4.84%</t>
+  </si>
+  <si>
+    <t>9.27%</t>
+  </si>
+  <si>
+    <t>-2.88%</t>
+  </si>
+  <si>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>9.75%</t>
+  </si>
+  <si>
+    <t>4.30%</t>
+  </si>
+  <si>
+    <t>12.55%</t>
+  </si>
+  <si>
+    <t>6.95%</t>
+  </si>
+  <si>
+    <t>13.61%</t>
+  </si>
+  <si>
+    <t>8.30%</t>
+  </si>
+  <si>
+    <t>0.52%</t>
+  </si>
+  <si>
+    <t>13.66%</t>
+  </si>
+  <si>
+    <t>11.34%</t>
+  </si>
+  <si>
+    <t>1.70%</t>
+  </si>
+  <si>
+    <t>13.65%</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>24.30%</t>
+  </si>
+  <si>
+    <t>22.90%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>1.14%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>6.43%</t>
+  </si>
+  <si>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>25.61%</t>
+  </si>
+  <si>
+    <t>4.96%</t>
+  </si>
+  <si>
+    <t>3.97%</t>
+  </si>
+  <si>
+    <t>4.63%</t>
+  </si>
+  <si>
+    <t>12.11%</t>
+  </si>
+  <si>
+    <t>28.96%</t>
+  </si>
+  <si>
+    <t>16.04%</t>
+  </si>
+  <si>
+    <t>24.86%</t>
+  </si>
+  <si>
+    <t>20.20%</t>
+  </si>
+  <si>
+    <t>12.79%</t>
+  </si>
+  <si>
+    <t>25.78%</t>
   </si>
   <si>
     <t>22.32%</t>
   </si>
   <si>
-    <t>21.28%</t>
-  </si>
-  <si>
-    <t>17.74%</t>
-  </si>
-  <si>
-    <t>22.36%</t>
-  </si>
-  <si>
-    <t>20.52%</t>
-  </si>
-  <si>
-    <t>15.41%</t>
-  </si>
-  <si>
-    <t>23.04%</t>
-  </si>
-  <si>
-    <t>17.38%</t>
-  </si>
-  <si>
-    <t>15.97%</t>
-  </si>
-  <si>
-    <t>18.21%</t>
-  </si>
-  <si>
-    <t>23.41%</t>
-  </si>
-  <si>
-    <t>15.71%</t>
-  </si>
-  <si>
-    <t>13.79%</t>
-  </si>
-  <si>
-    <t>13.12%</t>
-  </si>
-  <si>
-    <t>14.85%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>20.91%</t>
-  </si>
-  <si>
-    <t>14.55%</t>
-  </si>
-  <si>
-    <t>19.24%</t>
-  </si>
-  <si>
-    <t>19.96%</t>
-  </si>
-  <si>
-    <t>19.99%</t>
-  </si>
-  <si>
-    <t>19.74%</t>
-  </si>
-  <si>
-    <t>20.96%</t>
-  </si>
-  <si>
-    <t>19.16%</t>
-  </si>
-  <si>
-    <t>19.20%</t>
-  </si>
-  <si>
-    <t>18.70%</t>
-  </si>
-  <si>
-    <t>22.91%</t>
-  </si>
-  <si>
-    <t>18.55%</t>
-  </si>
-  <si>
-    <t>16.61%</t>
-  </si>
-  <si>
-    <t>21.50%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>19.17%</t>
-  </si>
-  <si>
-    <t>22.85%</t>
-  </si>
-  <si>
-    <t>16.98%</t>
-  </si>
-  <si>
-    <t>16.57%</t>
-  </si>
-  <si>
-    <t>15.33%</t>
-  </si>
-  <si>
-    <t>18.18%</t>
-  </si>
-  <si>
-    <t>14.08%</t>
-  </si>
-  <si>
-    <t>22.22%</t>
-  </si>
-  <si>
-    <t>26.25%</t>
-  </si>
-  <si>
-    <t>18.77%</t>
-  </si>
-  <si>
-    <t>25.39%</t>
-  </si>
-  <si>
-    <t>28.99%</t>
-  </si>
-  <si>
-    <t>27.16%</t>
-  </si>
-  <si>
-    <t>23.25%</t>
-  </si>
-  <si>
-    <t>29.14%</t>
-  </si>
-  <si>
-    <t>24.42%</t>
-  </si>
-  <si>
-    <t>24.60%</t>
-  </si>
-  <si>
-    <t>24.50%</t>
-  </si>
-  <si>
-    <t>29.85%</t>
-  </si>
-  <si>
-    <t>23.27%</t>
-  </si>
-  <si>
-    <t>19.88%</t>
-  </si>
-  <si>
-    <t>29.04%</t>
-  </si>
-  <si>
-    <t>22.55%</t>
-  </si>
-  <si>
-    <t>22.21%</t>
-  </si>
-  <si>
-    <t>24.14%</t>
-  </si>
-  <si>
-    <t>28.72%</t>
-  </si>
-  <si>
-    <t>22.90%</t>
-  </si>
-  <si>
-    <t>20.95%</t>
-  </si>
-  <si>
-    <t>19.49%</t>
-  </si>
-  <si>
-    <t>26.51%</t>
-  </si>
-  <si>
-    <t>18.12%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>5.11%</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>2.64%</t>
-  </si>
-  <si>
-    <t>2.58%</t>
-  </si>
-  <si>
-    <t>5.08%</t>
-  </si>
-  <si>
-    <t>7.92%</t>
-  </si>
-  <si>
-    <t>1.77%</t>
-  </si>
-  <si>
-    <t>10.90%</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>5.44%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>10.34%</t>
-  </si>
-  <si>
-    <t>4.04%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>-1.55%</t>
-  </si>
-  <si>
-    <t>3.31%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>7.26%</t>
-  </si>
-  <si>
-    <t>-1.89%</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>-0.23%</t>
-  </si>
-  <si>
-    <t>-1.11%</t>
-  </si>
-  <si>
-    <t>1.34%</t>
-  </si>
-  <si>
-    <t>8.20%</t>
-  </si>
-  <si>
-    <t>26.58%</t>
-  </si>
-  <si>
-    <t>11.08%</t>
-  </si>
-  <si>
-    <t>14.28%</t>
-  </si>
-  <si>
-    <t>19.04%</t>
-  </si>
-  <si>
-    <t>21.48%</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>19.13%</t>
-  </si>
-  <si>
-    <t>25.85%</t>
-  </si>
-  <si>
-    <t>19.82%</t>
-  </si>
-  <si>
-    <t>19.46%</t>
-  </si>
-  <si>
-    <t>25.55%</t>
-  </si>
-  <si>
-    <t>19.09%</t>
-  </si>
-  <si>
-    <t>14.63%</t>
-  </si>
-  <si>
-    <t>20.01%</t>
-  </si>
-  <si>
-    <t>11.67%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>17.48%</t>
-  </si>
-  <si>
-    <t>27.29%</t>
-  </si>
-  <si>
-    <t>10.41%</t>
-  </si>
-  <si>
-    <t>11.42%</t>
-  </si>
-  <si>
-    <t>8.85%</t>
-  </si>
-  <si>
-    <t>9.07%</t>
-  </si>
-  <si>
-    <t>13.55%</t>
-  </si>
-  <si>
-    <t>29.61%</t>
-  </si>
-  <si>
-    <t>18.49%</t>
-  </si>
-  <si>
-    <t>5.13%</t>
-  </si>
-  <si>
-    <t>4.96%</t>
-  </si>
-  <si>
-    <t>8.83%</t>
-  </si>
-  <si>
-    <t>9.04%</t>
-  </si>
-  <si>
-    <t>11.45%</t>
-  </si>
-  <si>
-    <t>2.85%</t>
-  </si>
-  <si>
-    <t>12.20%</t>
-  </si>
-  <si>
-    <t>4.97%</t>
-  </si>
-  <si>
-    <t>6.22%</t>
-  </si>
-  <si>
-    <t>8.99%</t>
-  </si>
-  <si>
-    <t>6.84%</t>
-  </si>
-  <si>
-    <t>4.08%</t>
-  </si>
-  <si>
-    <t>9.43%</t>
-  </si>
-  <si>
-    <t>3.74%</t>
-  </si>
-  <si>
-    <t>5.89%</t>
-  </si>
-  <si>
-    <t>20.67%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
-  </si>
-  <si>
-    <t>9.39%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>-5.93%</t>
-  </si>
-  <si>
-    <t>4.46%</t>
-  </si>
-  <si>
-    <t>11.25%</t>
-  </si>
-  <si>
-    <t>医疗器械;钢铁;汽车</t>
-  </si>
-  <si>
-    <t>医疗服务;医疗器械;食品饮料</t>
-  </si>
-  <si>
-    <t>太阳能光伏;证券;家电家具</t>
-  </si>
-  <si>
-    <t>饲料养殖;食品饮料;电气设备</t>
-  </si>
-  <si>
-    <t>饲料养殖;电子;食品饮料</t>
-  </si>
-  <si>
-    <t>太阳能光伏;商业贸易;集成电路</t>
-  </si>
-  <si>
-    <t>家电家具;锂电池;食品饮料</t>
-  </si>
-  <si>
-    <t>电子;饲料养殖;电气设备</t>
-  </si>
-  <si>
-    <t>集成电路;有色金属;通信</t>
-  </si>
-  <si>
-    <t>机械设备;商业贸易;电子</t>
-  </si>
-  <si>
-    <t>食品饮料;电子;医疗服务</t>
-  </si>
-  <si>
-    <t>饲料养殖;锂电池;电子</t>
-  </si>
-  <si>
-    <t>机械设备;家电家具;保险</t>
-  </si>
-  <si>
-    <t>饲料养殖;食品饮料;锂电池</t>
-  </si>
-  <si>
-    <t>商业贸易;传媒娱乐;集成电路</t>
-  </si>
-  <si>
-    <t>机械设备;军工;保险</t>
-  </si>
-  <si>
-    <t>商业贸易;传媒娱乐;食品饮料</t>
-  </si>
-  <si>
-    <t>汽车;钢铁;锂电池</t>
-  </si>
-  <si>
-    <t>医药生物;集成电路;保险</t>
-  </si>
-  <si>
-    <t>锂电池;休闲旅游;有色金属</t>
-  </si>
-  <si>
-    <t>锂电池;证券;有色金属</t>
-  </si>
-  <si>
-    <t>饲料养殖;食品饮料;军工</t>
-  </si>
-  <si>
-    <t>医疗器械;医药生物;锂电池</t>
-  </si>
-  <si>
-    <t>集成电路;医疗器械;通信</t>
+    <t>14.91%</t>
+  </si>
+  <si>
+    <t>22.46%</t>
+  </si>
+  <si>
+    <t>7.78%</t>
+  </si>
+  <si>
+    <t>25.14%</t>
+  </si>
+  <si>
+    <t>18.44%</t>
+  </si>
+  <si>
+    <t>9.30%</t>
+  </si>
+  <si>
+    <t>9.64%</t>
+  </si>
+  <si>
+    <t>-3.17%</t>
+  </si>
+  <si>
+    <t>8.74%</t>
+  </si>
+  <si>
+    <t>3.54%</t>
+  </si>
+  <si>
+    <t>-9.26%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>7.85%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>2.72%</t>
+  </si>
+  <si>
+    <t>14.86%</t>
+  </si>
+  <si>
+    <t>4.58%</t>
+  </si>
+  <si>
+    <t>31.41%</t>
+  </si>
+  <si>
+    <t>9.58%</t>
+  </si>
+  <si>
+    <t>18.41%</t>
+  </si>
+  <si>
+    <t>11.05%</t>
+  </si>
+  <si>
+    <t>6.58%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>13.63%</t>
+  </si>
+  <si>
+    <t>17.81%</t>
+  </si>
+  <si>
+    <t>医药生物;房地产</t>
+  </si>
+  <si>
+    <t>医疗服务;医疗器械;汽车;电气设备;家用电器;光伏太阳能;锂电池 ;锂电池;医药生物</t>
+  </si>
+  <si>
+    <t>汽车;食品饮料;饲料养殖;电气设备</t>
+  </si>
+  <si>
+    <t>食品饮料;光伏太阳能;锂电池;饲料养殖</t>
+  </si>
+  <si>
+    <t>通信;电子;半导体芯片;光学光电子;锂电池;光伏太阳能;消费电子</t>
+  </si>
+  <si>
+    <t>光学光电子;半导体芯片;电子;医药生物;软件开发;通信;消费电子</t>
+  </si>
+  <si>
+    <t>锂电池;食品饮料;医药生物;医疗服务;医疗器械;电气设备;家用电器</t>
+  </si>
+  <si>
+    <t>保险;证券;家用电器;商业贸易;汽车</t>
+  </si>
+  <si>
+    <t>饲料养殖;食品饮料;国防军工;汽车</t>
+  </si>
+  <si>
+    <t>锂电池;消费电子;医药生物;医疗服务</t>
+  </si>
+  <si>
+    <t>商业贸易</t>
+  </si>
+  <si>
+    <t>光学光电子;医药生物</t>
+  </si>
+  <si>
+    <t>软件开发;医药生物;医疗服务;医疗器械;银行;锂电池;通信;食品饮料;汽车</t>
+  </si>
+  <si>
+    <t>家用电器;光伏太阳能;半导体芯片;汽车;商业贸易</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>锂电池;电气设备;家用电器;光伏太阳能;锂电池 ;汽车;电子</t>
+  </si>
+  <si>
+    <t>半导体芯片;食品饮料;国防军工;家用电器;商业贸易</t>
+  </si>
+  <si>
+    <t>半导体芯片;锂电池;国防军工</t>
+  </si>
+  <si>
+    <t>锂电池;国防军工;消费电子;半导体芯片</t>
+  </si>
+  <si>
+    <t>锂电池;食品饮料;医药生物;商业贸易</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>保险;证券;光伏太阳能;家用电器;锂电池;汽车;国防军工</t>
+  </si>
+  <si>
+    <t>锂电池;家用电器;国防军工;食品饮料;商业贸易;电气设备</t>
   </si>
 </sst>
 </file>
@@ -984,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1016,628 +1007,628 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>101</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>125</v>
       </c>
-      <c r="F25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" t="s">
-        <v>196</v>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
